--- a/targets/RVE_1_40_D/PH/param_info/param_info.xlsx
+++ b/targets/RVE_1_40_D/PH/param_info/param_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="52">
   <si>
     <t>PH1</t>
   </si>
@@ -79,7 +79,7 @@
     <t>gdot0</t>
   </si>
   <si>
-    <t>small_yielding</t>
+    <t>yielding</t>
   </si>
   <si>
     <t>(0-100]</t>
@@ -110,9 +110,6 @@
   </si>
   <si>
     <t>tau0</t>
-  </si>
-  <si>
-    <t>large_yielding</t>
   </si>
   <si>
     <t>[1-200]</t>
@@ -927,10 +924,10 @@
         <v>31</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="E7" s="2">
         <v>0.1</v>
@@ -949,7 +946,7 @@
         <v>31</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L7" s="2">
         <v>1</v>
@@ -959,7 +956,7 @@
         <v>31</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P7" s="2">
         <v>1</v>
@@ -969,7 +966,7 @@
         <v>31</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T7" s="2">
         <v>1</v>
@@ -978,16 +975,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
@@ -1003,30 +1000,30 @@
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="L8" s="2">
         <v>1</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="O8" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="P8" s="2">
         <v>1</v>
       </c>
       <c r="Q8" s="3"/>
       <c r="R8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S8" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="T8" s="2">
         <v>1</v>
@@ -1035,16 +1032,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="E9" s="2">
         <v>0.001</v>
@@ -1060,30 +1057,30 @@
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L9" s="2">
         <v>0.005</v>
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P9" s="2">
         <v>0.005</v>
       </c>
       <c r="Q9" s="3"/>
       <c r="R9" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T9" s="2">
         <v>0.005</v>
@@ -1092,16 +1089,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="C10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="E10" s="2">
         <v>0.001</v>
@@ -1117,30 +1114,30 @@
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L10" s="2">
         <v>0.005</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P10" s="2">
         <v>0.005</v>
       </c>
       <c r="Q10" s="3"/>
       <c r="R10" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T10" s="2">
         <v>0.005</v>
@@ -1149,16 +1146,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="E11" s="2">
         <v>0.01</v>
@@ -1174,30 +1171,30 @@
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="L11" s="2">
         <v>0.1</v>
       </c>
       <c r="M11" s="3"/>
       <c r="N11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="O11" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="P11" s="2">
         <v>0.1</v>
       </c>
       <c r="Q11" s="3"/>
       <c r="R11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="S11" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="T11" s="2">
         <v>0.1</v>
@@ -1206,16 +1203,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="C12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="E12" s="2">
         <v>0.001</v>
@@ -1231,30 +1228,30 @@
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L12" s="2">
         <v>0.005</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P12" s="2">
         <v>0.005</v>
       </c>
       <c r="Q12" s="3"/>
       <c r="R12" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T12" s="2">
         <v>0.005</v>
@@ -1263,16 +1260,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="E13" s="2">
         <v>0.001</v>
@@ -1288,30 +1285,30 @@
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="L13" s="2">
         <v>0.005</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="O13" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="P13" s="2">
         <v>0.005</v>
       </c>
       <c r="Q13" s="3"/>
       <c r="R13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="S13" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="T13" s="2">
         <v>0.005</v>
@@ -1320,16 +1317,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E14" s="2">
         <v>0.001</v>
@@ -1345,30 +1342,30 @@
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L14" s="2">
         <v>0.005</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P14" s="2">
         <v>0.005</v>
       </c>
       <c r="Q14" s="3"/>
       <c r="R14" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T14" s="2">
         <v>0.005</v>

--- a/targets/RVE_1_40_D/PH/param_info/param_info.xlsx
+++ b/targets/RVE_1_40_D/PH/param_info/param_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="58">
   <si>
     <t>PH1</t>
   </si>
@@ -49,6 +49,15 @@
     <t>exponent</t>
   </si>
   <si>
+    <t>effect</t>
+  </si>
+  <si>
+    <t>base</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
     <t>range</t>
   </si>
   <si>
@@ -73,6 +82,12 @@
     <t>e0</t>
   </si>
   <si>
+    <t>linear</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>(fitting parameter) reference shear rate</t>
   </si>
   <si>
@@ -89,6 +104,9 @@
   </si>
   <si>
     <t>e-3</t>
+  </si>
+  <si>
+    <t>log</t>
   </si>
   <si>
     <t>h0</t>
@@ -239,7 +257,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -258,6 +276,12 @@
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -573,33 +597,35 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:U14"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="53.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="22.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="15.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="18.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="7" width="16.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="10" width="22.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="8" width="16.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="9" width="14.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="10" width="14.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="9" width="53.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="9" width="22.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="15.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="10" width="16.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="9" width="18.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="9" width="16.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="12" width="22.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="9" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="10" width="16.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="11" width="14.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="12" width="14.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="9" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="18" max="18" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="9" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -612,24 +638,26 @@
       <c r="G1" s="3"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4" t="s">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4" t="s">
+      <c r="N1" s="2"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="2"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="2"/>
-      <c r="U1" s="1"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
@@ -656,721 +684,805 @@
       <c r="H2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="5" t="s">
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="6"/>
-      <c r="N2" s="5" t="s">
+      <c r="M2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="6"/>
+      <c r="P2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="5" t="s">
+      <c r="Q2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S2" s="6"/>
+      <c r="T2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="U2" s="1"/>
+      <c r="U2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="W2" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2">
         <v>0.01</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G3" s="2">
         <v>1.5</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" s="2">
+        <v>21</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="7">
+        <v>2</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="2">
         <v>0.1</v>
       </c>
-      <c r="M3" s="3"/>
-      <c r="N3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P3" s="2">
+      <c r="O3" s="3"/>
+      <c r="P3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="2">
         <v>0.1</v>
       </c>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="T3" s="2">
+      <c r="S3" s="3"/>
+      <c r="T3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V3" s="2">
         <v>0.1</v>
       </c>
-      <c r="U3" s="1"/>
+      <c r="W3" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E4" s="2">
         <v>0.1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G4" s="2">
         <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="2">
+        <v>29</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="7">
+        <v>2</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" s="2">
         <v>0.1</v>
       </c>
-      <c r="M4" s="3"/>
-      <c r="N4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="P4" s="2">
+      <c r="O4" s="3"/>
+      <c r="P4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4" s="2">
         <v>0.1</v>
       </c>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="T4" s="2">
+      <c r="S4" s="3"/>
+      <c r="T4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V4" s="2">
         <v>0.1</v>
       </c>
-      <c r="U4" s="1"/>
+      <c r="W4" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G5" s="3">
         <v>500</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="2">
-        <v>1</v>
-      </c>
-      <c r="M5" s="3"/>
-      <c r="N5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P5" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T5" s="2">
-        <v>1</v>
-      </c>
-      <c r="U5" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="7">
+        <v>2</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" s="2">
+        <v>1</v>
+      </c>
+      <c r="O5" s="3"/>
+      <c r="P5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R5" s="2">
+        <v>1</v>
+      </c>
+      <c r="S5" s="3"/>
+      <c r="T5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V5" s="2">
+        <v>1</v>
+      </c>
+      <c r="W5" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E6" s="2">
         <v>0.1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G6" s="3">
         <v>20</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6" s="2">
-        <v>1</v>
-      </c>
-      <c r="M6" s="3"/>
-      <c r="N6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P6" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="T6" s="2">
-        <v>1</v>
-      </c>
-      <c r="U6" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="7">
+        <v>2</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N6" s="2">
+        <v>1</v>
+      </c>
+      <c r="O6" s="3"/>
+      <c r="P6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R6" s="2">
+        <v>1</v>
+      </c>
+      <c r="S6" s="3"/>
+      <c r="T6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V6" s="2">
+        <v>1</v>
+      </c>
+      <c r="W6" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E7" s="2">
         <v>0.1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G7" s="3">
         <v>50</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" s="2">
-        <v>1</v>
-      </c>
-      <c r="M7" s="3"/>
-      <c r="N7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P7" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T7" s="2">
-        <v>1</v>
-      </c>
-      <c r="U7" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="7">
+        <v>2</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7" s="2">
+        <v>1</v>
+      </c>
+      <c r="O7" s="3"/>
+      <c r="P7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R7" s="2">
+        <v>1</v>
+      </c>
+      <c r="S7" s="6"/>
+      <c r="T7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V7" s="2">
+        <v>1</v>
+      </c>
+      <c r="W7" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G8" s="3">
         <v>150</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L8" s="2">
-        <v>1</v>
-      </c>
-      <c r="M8" s="3"/>
-      <c r="N8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="P8" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="T8" s="2">
-        <v>1</v>
-      </c>
-      <c r="U8" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="7">
+        <v>2</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N8" s="2">
+        <v>1</v>
+      </c>
+      <c r="O8" s="3"/>
+      <c r="P8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R8" s="2">
+        <v>1</v>
+      </c>
+      <c r="S8" s="3"/>
+      <c r="T8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V8" s="2">
+        <v>1</v>
+      </c>
+      <c r="W8" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E9" s="2">
         <v>0.001</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G9" s="3">
         <v>1</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L9" s="2">
+        <v>21</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="7">
+        <v>2</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N9" s="2">
         <v>0.005</v>
       </c>
-      <c r="M9" s="3"/>
-      <c r="N9" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="P9" s="2">
+      <c r="O9" s="3"/>
+      <c r="P9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R9" s="2">
         <v>0.005</v>
       </c>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="T9" s="2">
+      <c r="S9" s="3"/>
+      <c r="T9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V9" s="2">
         <v>0.005</v>
       </c>
-      <c r="U9" s="1"/>
+      <c r="W9" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E10" s="2">
         <v>0.001</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G10" s="3">
         <v>1</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L10" s="2">
+        <v>21</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="7">
+        <v>2</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N10" s="2">
         <v>0.005</v>
       </c>
-      <c r="M10" s="3"/>
-      <c r="N10" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="P10" s="2">
+      <c r="O10" s="3"/>
+      <c r="P10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R10" s="2">
         <v>0.005</v>
       </c>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="T10" s="2">
+      <c r="S10" s="3"/>
+      <c r="T10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V10" s="2">
         <v>0.005</v>
       </c>
-      <c r="U10" s="1"/>
+      <c r="W10" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E11" s="2">
         <v>0.01</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G11" s="3">
         <v>1</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L11" s="2">
+        <v>21</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="7">
+        <v>2</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N11" s="2">
         <v>0.1</v>
       </c>
-      <c r="M11" s="3"/>
-      <c r="N11" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="P11" s="2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R11" s="2">
         <v>0.1</v>
       </c>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="T11" s="2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="V11" s="2">
         <v>0.1</v>
       </c>
-      <c r="U11" s="1"/>
+      <c r="W11" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="E12" s="2">
         <v>0.001</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G12" s="3">
         <v>1</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L12" s="2">
+        <v>21</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="7">
+        <v>2</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N12" s="2">
         <v>0.005</v>
       </c>
-      <c r="M12" s="3"/>
-      <c r="N12" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="P12" s="2">
+      <c r="O12" s="3"/>
+      <c r="P12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R12" s="2">
         <v>0.005</v>
       </c>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="T12" s="2">
+      <c r="S12" s="3"/>
+      <c r="T12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V12" s="2">
         <v>0.005</v>
       </c>
-      <c r="U12" s="1"/>
+      <c r="W12" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E13" s="2">
         <v>0.001</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G13" s="3">
         <v>1</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L13" s="2">
+        <v>21</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="7">
+        <v>2</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N13" s="2">
         <v>0.005</v>
       </c>
-      <c r="M13" s="3"/>
-      <c r="N13" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="P13" s="2">
+      <c r="O13" s="3"/>
+      <c r="P13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="R13" s="2">
         <v>0.005</v>
       </c>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="T13" s="2">
+      <c r="S13" s="3"/>
+      <c r="T13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="V13" s="2">
         <v>0.005</v>
       </c>
-      <c r="U13" s="1"/>
+      <c r="W13" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E14" s="2">
         <v>0.001</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G14" s="3">
         <v>1</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L14" s="2">
+        <v>21</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="7">
+        <v>2</v>
+      </c>
+      <c r="K14" s="1"/>
+      <c r="L14" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N14" s="2">
         <v>0.005</v>
       </c>
-      <c r="M14" s="3"/>
-      <c r="N14" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="P14" s="2">
+      <c r="O14" s="3"/>
+      <c r="P14" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="R14" s="2">
         <v>0.005</v>
       </c>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="T14" s="2">
+      <c r="S14" s="3"/>
+      <c r="T14" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="V14" s="2">
         <v>0.005</v>
       </c>
-      <c r="U14" s="1"/>
+      <c r="W14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/targets/RVE_1_40_D/PH/param_info/param_info.xlsx
+++ b/targets/RVE_1_40_D/PH/param_info/param_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="52">
   <si>
     <t>description</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>e6</t>
   </si>
   <si>
     <t>(fitting parameter) slip hardening</t>
@@ -222,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -231,9 +234,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
@@ -556,16 +556,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="53.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="22.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="15.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="18.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="53.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="22.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="15.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="16.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="5" width="18.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -600,7 +600,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -628,11 +628,11 @@
       <c r="I2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="J2" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -660,11 +660,11 @@
       <c r="I3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="J3" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
@@ -687,27 +687,27 @@
         <v>50</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="3">
         <v>2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E5" s="2">
         <v>0.01</v>
@@ -724,22 +724,22 @@
       <c r="I5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="3">
         <v>2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
@@ -751,27 +751,27 @@
         <v>500</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="3">
         <v>2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
@@ -783,27 +783,27 @@
         <v>150</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="3">
         <v>2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E8" s="2">
         <v>0.001</v>
@@ -820,22 +820,22 @@
       <c r="I8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="3">
         <v>2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="E9" s="2">
         <v>0.001</v>
@@ -852,22 +852,22 @@
       <c r="I9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="3">
         <v>2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10" s="2">
         <v>0.01</v>
@@ -884,22 +884,22 @@
       <c r="I10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="3">
         <v>2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E11" s="2">
         <v>0.001</v>
@@ -916,22 +916,22 @@
       <c r="I11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="3">
         <v>2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E12" s="2">
         <v>0.001</v>
@@ -948,22 +948,22 @@
       <c r="I12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="3">
         <v>2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="E13" s="2">
         <v>0.001</v>
@@ -980,7 +980,7 @@
       <c r="I13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="3">
         <v>2</v>
       </c>
     </row>

--- a/targets/RVE_1_40_D/PH/param_info/param_info.xlsx
+++ b/targets/RVE_1_40_D/PH/param_info/param_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="53">
   <si>
     <t>description</t>
   </si>
@@ -43,7 +43,7 @@
     <t>effect</t>
   </si>
   <si>
-    <t>base</t>
+    <t>root</t>
   </si>
   <si>
     <t>(fitting parameter) reference shear rate</t>
@@ -64,7 +64,7 @@
     <t>e-3</t>
   </si>
   <si>
-    <t>log</t>
+    <t>poly</t>
   </si>
   <si>
     <t>(fitting parameter) strain rate sensitivity</t>
@@ -79,31 +79,31 @@
     <t>e0</t>
   </si>
   <si>
+    <t>(fitting parameter) initial slip resistance</t>
+  </si>
+  <si>
+    <t>tau0</t>
+  </si>
+  <si>
+    <t>[1-200]</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>e6</t>
+  </si>
+  <si>
     <t>linear</t>
   </si>
   <si>
-    <t>(fitting parameter) initial slip resistance</t>
-  </si>
-  <si>
-    <t>tau0</t>
-  </si>
-  <si>
-    <t>[1-200]</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>e6</t>
-  </si>
-  <si>
     <t>(fitting parameter) slip hardening</t>
   </si>
   <si>
     <t>a</t>
   </si>
   <si>
-    <t>large_hardening</t>
+    <t>linear_hardening</t>
   </si>
   <si>
     <t>(1-10]</t>
@@ -130,10 +130,13 @@
     <t>self</t>
   </si>
   <si>
-    <t>small_hardening</t>
+    <t>nonlinear_hardening</t>
   </si>
   <si>
     <t>(0-2]</t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
   <si>
     <t>(interaction coefficient) same slip planes, different slip directions</t>
@@ -177,7 +180,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,12 +191,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -225,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -234,9 +231,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -556,16 +550,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="53.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="22.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="15.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="18.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="53.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="22.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="21.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="16.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="4" width="18.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="4" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -596,7 +590,7 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -629,7 +623,7 @@
         <v>16</v>
       </c>
       <c r="J2" s="3">
-        <v>2</v>
+        <v>1.3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
@@ -658,39 +652,39 @@
         <v>20</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J3" s="3">
-        <v>2</v>
+        <v>1.3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" s="2">
         <v>0.1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G4" s="3">
         <v>50</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="J4" s="3">
         <v>2</v>
@@ -713,7 +707,7 @@
         <v>0.01</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G5" s="2">
         <v>1.5</v>
@@ -722,10 +716,10 @@
         <v>20</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J5" s="3">
-        <v>2</v>
+        <v>1.3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
@@ -745,19 +739,19 @@
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G6" s="3">
         <v>500</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J6" s="3">
-        <v>2</v>
+        <v>1.3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
@@ -777,19 +771,19 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G7" s="3">
         <v>150</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J7" s="3">
-        <v>2</v>
+        <v>1.3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
@@ -809,7 +803,7 @@
         <v>0.001</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G8" s="3">
         <v>1</v>
@@ -818,18 +812,18 @@
         <v>20</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="3">
-        <v>2</v>
+        <v>26</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>38</v>
@@ -841,7 +835,7 @@
         <v>0.001</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G9" s="3">
         <v>1</v>
@@ -850,30 +844,30 @@
         <v>20</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J9" s="3">
-        <v>2</v>
+        <v>1.3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E10" s="2">
         <v>0.01</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G10" s="3">
         <v>1</v>
@@ -882,18 +876,18 @@
         <v>20</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J10" s="3">
-        <v>2</v>
+        <v>1.3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>38</v>
@@ -905,7 +899,7 @@
         <v>0.001</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G11" s="3">
         <v>1</v>
@@ -914,30 +908,30 @@
         <v>20</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J11" s="3">
-        <v>2</v>
+        <v>1.3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E12" s="2">
         <v>0.001</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G12" s="3">
         <v>1</v>
@@ -946,30 +940,30 @@
         <v>20</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J12" s="3">
-        <v>2</v>
+        <v>1.3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E13" s="2">
         <v>0.001</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G13" s="3">
         <v>1</v>
@@ -978,10 +972,10 @@
         <v>20</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J13" s="3">
-        <v>2</v>
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/targets/RVE_1_40_D/PH/param_info/param_info.xlsx
+++ b/targets/RVE_1_40_D/PH/param_info/param_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="52">
   <si>
     <t>description</t>
   </si>
@@ -43,7 +43,7 @@
     <t>effect</t>
   </si>
   <si>
-    <t>root</t>
+    <t>power</t>
   </si>
   <si>
     <t>(fitting parameter) reference shear rate</t>
@@ -134,9 +134,6 @@
   </si>
   <si>
     <t>(0-2]</t>
-  </si>
-  <si>
-    <t>None</t>
   </si>
   <si>
     <t>(interaction coefficient) same slip planes, different slip directions</t>
@@ -687,7 +684,7 @@
         <v>26</v>
       </c>
       <c r="J4" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
@@ -814,16 +811,16 @@
       <c r="I8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>40</v>
+      <c r="J8" s="3">
+        <v>1</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>38</v>
@@ -852,16 +849,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E10" s="2">
         <v>0.01</v>
@@ -884,10 +881,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>38</v>
@@ -916,16 +913,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E12" s="2">
         <v>0.001</v>
@@ -948,16 +945,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E13" s="2">
         <v>0.001</v>
